--- a/data/CS1/case18_2/case18_2_2040.xlsx
+++ b/data/CS1/case18_2/case18_2_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063CF89-E8EA-41B9-8DAB-2E8CAB94F115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161DC96-48CC-4B0E-B201-F3CA4BC86FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS1/case18_2/case18_2_2040.xlsx
+++ b/data/CS1/case18_2/case18_2_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161DC96-48CC-4B0E-B201-F3CA4BC86FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD4BD4F-1F95-43DA-9B3C-24CDEAAD2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
